--- a/data/unchecked/manual_collect/china/shanghai/shanghaiCaseStatistics_20200611.xlsx
+++ b/data/unchecked/manual_collect/china/shanghai/shanghaiCaseStatistics_20200611.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\lab\疫情可视化\每日数据更新\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1EAC57-5847-4DFE-BFF6-D71565F00220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A49E80-5088-41D1-8044-7F0F1E9B28A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -12088,14 +12088,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.84375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="45.84375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="29.3828125" style="12" customWidth="1"/>
     <col min="3" max="3" width="31.84375" style="13" customWidth="1"/>
     <col min="4" max="4" width="31.84375" style="12" customWidth="1"/>
     <col min="5" max="5" width="5.15234375" style="12" customWidth="1"/>
